--- a/biology/Médecine/Mogens_Schou/Mogens_Schou.xlsx
+++ b/biology/Médecine/Mogens_Schou/Mogens_Schou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mogens Schou (24 novembre 1918 – 29 septembre 2005) est un psychiatre danois dont les recherches sur le Sel de lithium conduisent à son utilisation comme traitement du trouble bipolaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Schou est né à Copenhague, au Danemark, le 24 novembre 1918. Son père est psychiatre et directeur médical d'un grand hôpital psychiatrique. Schou choisit d'étudier la médecine dans le but spécifique de faire de la recherche sur la maladie maniaco-dépressive (maintenant plus communément appelée trouble bipolaire). Il obtient un diplôme en médecine de l'Université de Copenhague en 1944. Après sa formation en psychiatrie clinique, il étudie également la biologie expérimentale.
 </t>
@@ -542,7 +556,9 @@
           <t>Recherches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les intérêts de recherche de Schou se concentrent sur les utilisations thérapeutiques du lithium pour les patients souffrant de troubles de l'humeur.
 L'ère psychopharmacologique commence sérieusement en 1949, avec un article publié par John Cade sur l'action antimaniaque observée du lithium en Australie. Intrigué par ces découvertes, Schou, qui entre-temps a rejoint l'Institut de recherche psychiatrique de l'Université d'Aarhus, confirme ces découvertes dans une étude en double aveugle contrôlée par placebo avec ses collègues.
